--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\DataDrivenFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthi/GitLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>firstname</t>
   </si>
@@ -98,6 +104,12 @@
   </si>
   <si>
     <t>runmode</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -421,9 +433,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -431,7 +443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -439,7 +451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -447,7 +459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -462,15 +474,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +498,11 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -503,8 +518,11 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -521,7 +539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -538,7 +556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -568,9 +586,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -578,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
